--- a/src/test/resources/testCase.xlsx
+++ b/src/test/resources/testCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Andersen course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\javaUIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{365A7CD3-6D52-4CCC-BDD5-195E453FAB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FC427E-D598-4792-B793-B69DE5B3B161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{1D81EAF9-2C44-4F7B-AACD-3B28E5A62394}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1D81EAF9-2C44-4F7B-AACD-3B28E5A62394}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -108,14 +108,6 @@
     <t>Module</t>
   </si>
   <si>
-    <t>First Name - Name
-Last Name - Surname
-Date of birtch - 04/20/1990
-Email - test@example.com
-Password - Qwerty123
-Confirm password - Qwerty123</t>
-  </si>
-  <si>
     <t>Successful registration. Redirect to a new personal account or Sing In page</t>
   </si>
   <si>
@@ -160,9 +152,6 @@
 3. Click Submit button</t>
   </si>
   <si>
-    <t>Firt Name - Na</t>
-  </si>
-  <si>
     <t>Last Name field</t>
   </si>
   <si>
@@ -189,9 +178,6 @@
   <si>
     <t>1. Go to https://qa-course-01.andersenlab.com/registration page;
 2. Enter Date of birth</t>
-  </si>
-  <si>
-    <t>Date of birtch - 30/04/1990</t>
   </si>
   <si>
     <t>The following error message is displayed under the field:
@@ -290,9 +276,6 @@
 Invalid email address</t>
   </si>
   <si>
-    <t>Min-1 Lenght (7 characters)</t>
-  </si>
-  <si>
     <t>The following error message is displayed under the field:
 Minimum 8 characters</t>
   </si>
@@ -352,6 +335,23 @@
   <si>
     <t>1. Go to https://qa-course-01.andersenlab.com/login page;
 2. Click to the Registration link</t>
+  </si>
+  <si>
+    <t>Date of birth - 30/04/1990</t>
+  </si>
+  <si>
+    <t>First Name - Na</t>
+  </si>
+  <si>
+    <t>First Name - Name
+Last Name - Surname
+Date of birth - 04/20/1990
+Email - test@example.com
+Password - Qwerty123
+Confirm password - Qwerty123</t>
+  </si>
+  <si>
+    <t>Min-1 Length (7 characters)</t>
   </si>
 </sst>
 </file>
@@ -410,29 +410,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -441,13 +437,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,16 +762,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165CA5C3-357B-4B47-85F2-EABE7F270BCD}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
@@ -783,34 +779,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1"/>
@@ -819,8 +815,8 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>66</v>
+      <c r="B2" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -828,368 +824,347 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="8"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="G4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="G6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="4"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="4"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="4"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="4"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="4"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="4"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="4"/>
+      <c r="F15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="4"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="12"/>
+      <c r="H21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
